--- a/WebContent/WEB-INF/docs/Meldingstabell Adviseringsmelding v1.0.1.xlsx
+++ b/WebContent/WEB-INF/docs/Meldingstabell Adviseringsmelding v1.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edisysno-my.sharepoint.com/personal/are_berg_edisys_no/Documents/Dokumenter/Oppdrag/NorStella/Advisering/Dokumentasjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{45A24B4A-3AFF-3E42-970B-CF4892B813E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F4CEEF7-B9EA-5C41-897B-8520F4B73F3C}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{45A24B4A-3AFF-3E42-970B-CF4892B813E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C10B87-3F23-D242-9B50-DEC4F81CE9DE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{50F96DC2-9C79-44CE-8154-71D8EA9F0AC4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="246">
   <si>
     <t>Adviseringer</t>
   </si>
@@ -819,34 +819,7 @@
     <t>transportDocumentHouseLevel</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Endring</t>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>transportValue =&gt; value</t>
-    </r>
   </si>
   <si>
     <t>1.0.1</t>
@@ -903,78 +876,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endret navn på Json-elementer:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endret navn på elementer:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endret meldingsstruktur for å ligne mer på eksempelfiler:</t>
-    </r>
-  </si>
-  <si>
     <t>Transportutstyr</t>
   </si>
   <si>
@@ -1153,6 +1054,54 @@
   </si>
   <si>
     <t xml:space="preserve">"en-epost@mail.no" </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Endret logisk navn på elementer:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Endret i meldingsstruktur for å være mer i henhold til eksempelfiler:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1847,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -2208,6 +2157,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2226,23 +2193,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2559,22 +2511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529E5DD0-652A-1D46-A6EF-1F7E3CA6FC77}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>31</v>
@@ -2584,92 +2536,78 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="114" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="134">
-        <v>45553</v>
+      <c r="A2" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="129">
+        <v>45554</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="114" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="135"/>
+        <v>204</v>
+      </c>
+      <c r="B3" s="127"/>
+      <c r="C3" s="130"/>
     </row>
     <row r="4" spans="1:3" s="114" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="135"/>
-    </row>
-    <row r="5" spans="1:3" s="114" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="B4" s="127"/>
+      <c r="C4" s="130"/>
+    </row>
+    <row r="5" spans="1:3" s="114" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130"/>
+    </row>
+    <row r="6" spans="1:3" s="114" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="130"/>
+    </row>
+    <row r="7" spans="1:3" s="114" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="135"/>
-    </row>
-    <row r="6" spans="1:3" s="114" customFormat="1" ht="35" x14ac:dyDescent="0.2">
-      <c r="A6" s="121" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="135"/>
-    </row>
-    <row r="7" spans="1:3" s="114" customFormat="1" ht="35" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="135"/>
-    </row>
-    <row r="8" spans="1:3" s="114" customFormat="1" ht="35" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="135"/>
-    </row>
-    <row r="9" spans="1:3" s="114" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="B7" s="127"/>
+      <c r="C7" s="130"/>
+    </row>
+    <row r="8" spans="1:3" s="114" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="135"/>
-    </row>
-    <row r="10" spans="1:3" s="114" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
+    </row>
+    <row r="9" spans="1:3" s="114" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="136"/>
-    </row>
-    <row r="11" spans="1:3" s="114" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="116" t="s">
+      <c r="B9" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C9" s="120">
         <v>45324</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="118"/>
+    <row r="10" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2680,10 +2618,10 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2708,30 +2646,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129" t="s">
+      <c r="A1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
       <c r="J1" s="86"/>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="131" t="s">
+      <c r="L1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="130" t="s">
+      <c r="M1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:17" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2765,8 +2703,8 @@
       <c r="J2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="131"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="137"/>
       <c r="M2" s="42" t="s">
         <v>14</v>
       </c>
@@ -2855,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F5" s="76" t="s">
         <v>28</v>
@@ -2906,7 +2844,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="62" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F6" s="76" t="s">
         <v>28</v>
@@ -2959,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F7" s="76" t="s">
         <v>28</v>
@@ -3012,7 +2950,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F8" s="76" t="s">
         <v>28</v>
@@ -3065,7 +3003,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F9" s="76" t="s">
         <v>28</v>
@@ -3118,7 +3056,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="21"/>
@@ -3288,7 +3226,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>28</v>
@@ -3341,7 +3279,7 @@
         <v>61</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>28</v>
@@ -3445,7 +3383,7 @@
         <v>65</v>
       </c>
       <c r="E17" s="125" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>44</v>
@@ -3498,7 +3436,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F18" s="76" t="s">
         <v>44</v>
@@ -3602,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F20" s="76" t="s">
         <v>28</v>
@@ -3655,7 +3593,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>28</v>
@@ -3759,7 +3697,7 @@
         <v>195</v>
       </c>
       <c r="E23" s="110" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>28</v>
@@ -3812,7 +3750,7 @@
         <v>80</v>
       </c>
       <c r="E24" s="109" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>28</v>
@@ -3916,7 +3854,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>28</v>
@@ -4094,7 +4032,7 @@
         <v>95</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>44</v>
@@ -4411,7 +4349,7 @@
         <v>137</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F39" s="76" t="s">
         <v>28</v>
@@ -4448,7 +4386,7 @@
         <v>139</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F40" s="76" t="s">
         <v>28</v>
@@ -4485,7 +4423,7 @@
         <v>142</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F41" s="76" t="s">
         <v>44</v>
@@ -4662,7 +4600,7 @@
         <v>107</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F46" s="76" t="s">
         <v>44</v>
@@ -4701,7 +4639,7 @@
         <v>110</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F47" s="76" t="s">
         <v>44</v>
@@ -4740,7 +4678,7 @@
         <v>113</v>
       </c>
       <c r="E48" s="64" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F48" s="76" t="s">
         <v>44</v>
@@ -4779,7 +4717,7 @@
         <v>116</v>
       </c>
       <c r="E49" s="64" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F49" s="76" t="s">
         <v>44</v>
@@ -4806,13 +4744,13 @@
     </row>
     <row r="50" spans="1:17" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="69"/>
@@ -4903,13 +4841,13 @@
         <v>44</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F53" s="76" t="s">
         <v>44</v>
@@ -4942,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>125</v>
@@ -5012,7 +4950,7 @@
         <v>130</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F56" s="76"/>
       <c r="G56" s="21"/>
@@ -5047,7 +4985,7 @@
         <v>133</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F57" s="76"/>
       <c r="G57" s="21"/>
@@ -5220,7 +5158,7 @@
         <v>154</v>
       </c>
       <c r="E62" s="64" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F62" s="76"/>
       <c r="G62" s="21"/>
@@ -5348,7 +5286,7 @@
         <v>154</v>
       </c>
       <c r="E66" s="64" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F66" s="76"/>
       <c r="G66" s="21"/>
@@ -5435,7 +5373,7 @@
         <v>170</v>
       </c>
       <c r="E69" s="64" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F69" s="76"/>
       <c r="G69" s="21"/>
@@ -5495,7 +5433,7 @@
         <v>178</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F71" s="76"/>
       <c r="G71" s="21"/>
@@ -5528,7 +5466,7 @@
         <v>175</v>
       </c>
       <c r="E72" s="64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F72" s="76"/>
       <c r="G72" s="21"/>
@@ -5592,7 +5530,7 @@
         <v>185</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F74" s="76"/>
       <c r="G74" s="21"/>
@@ -5625,7 +5563,7 @@
         <v>183</v>
       </c>
       <c r="E75" s="64" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F75" s="76"/>
       <c r="G75" s="21"/>
@@ -5782,6 +5720,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A7BD15C23A39F34BADC54A3FE082A986" ma:contentTypeVersion="10" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="df23b5267de0689925b32491be1577ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42567f4f-aaa6-43a3-bcd5-b1433f6de776" xmlns:ns3="3d79b2ff-e195-405d-bbe6-19b64ecbf10b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96990a46d95ab2edc357a3e02a915ed7" ns2:_="" ns3:_="">
     <xsd:import namespace="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
@@ -5982,12 +5926,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626C86AD-A593-4B02-A3D2-C3F4B39DFB5E}">
   <ds:schemaRefs>
@@ -5997,6 +5935,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF7EED7-B2F0-4CFA-8703-98F36D9DEEFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
+    <ds:schemaRef ds:uri="3d79b2ff-e195-405d-bbe6-19b64ecbf10b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1CE705-907F-4833-ADAD-0B82BA10764E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6013,21 +5968,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF7EED7-B2F0-4CFA-8703-98F36D9DEEFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="3d79b2ff-e195-405d-bbe6-19b64ecbf10b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>